--- a/KetQuaTest_OrderHistoryServlet.xlsx
+++ b/KetQuaTest_OrderHistoryServlet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -35,44 +35,111 @@
     <t>Trạng Thái</t>
   </si>
   <si>
+    <t>HIST_03</t>
+  </si>
+  <si>
+    <t>Chưa đăng nhập</t>
+  </si>
+  <si>
+    <t>User=null</t>
+  </si>
+  <si>
+    <t>Session User = null</t>
+  </si>
+  <si>
+    <t>Redirect Login.jsp</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>HIST_05</t>
+  </si>
+  <si>
+    <t>Đơn hàng không tồn tại/Sai chủ</t>
+  </si>
+  <si>
+    <t>ID=99</t>
+  </si>
+  <si>
+    <t>Service return null</t>
+  </si>
+  <si>
+    <t>Redirect order-history</t>
+  </si>
+  <si>
+    <t>HIST_07</t>
+  </si>
+  <si>
+    <t>Lỗi hệ thống</t>
+  </si>
+  <si>
+    <t>Crash</t>
+  </si>
+  <si>
+    <t>Service ném RuntimeException</t>
+  </si>
+  <si>
+    <t>Catch -&gt; Redirect view-products</t>
+  </si>
+  <si>
     <t>HIST_01</t>
   </si>
   <si>
-    <t>Lịch sử đơn hàng</t>
-  </si>
-  <si>
-    <t>1. User có session
-2. action=null
-3. Gọi service getOrdersForUser()</t>
+    <t>Xem lịch sử đơn hàng</t>
   </si>
   <si>
     <t>UserID=1</t>
   </si>
   <si>
-    <t>Forward: order-history.jsp</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>PASS</t>
+    <t>1. User login
+2. Action=null</t>
+  </si>
+  <si>
+    <t>Forward order-history.jsp</t>
+  </si>
+  <si>
+    <t>HIST_04</t>
+  </si>
+  <si>
+    <t>Xem chi tiết thiếu ID</t>
+  </si>
+  <si>
+    <t>ID=null</t>
+  </si>
+  <si>
+    <t>Action=detail, ID=null</t>
+  </si>
+  <si>
+    <t>HIST_06</t>
+  </si>
+  <si>
+    <t>ID rác (Chữ)</t>
+  </si>
+  <si>
+    <t>ID='abc'</t>
+  </si>
+  <si>
+    <t>ID='abc' -&gt; NumberFormatEx</t>
   </si>
   <si>
     <t>HIST_02</t>
   </si>
   <si>
-    <t>Chi tiết đơn hàng</t>
-  </si>
-  <si>
-    <t>1. action=detail
-2. id=10
-3. Service getSecuredOrder()</t>
-  </si>
-  <si>
-    <t>OrderID=10</t>
-  </si>
-  <si>
-    <t>Forward: order-detail.jsp</t>
+    <t>Xem chi tiết đơn hàng</t>
+  </si>
+  <si>
+    <t>ID=10</t>
+  </si>
+  <si>
+    <t>1. Action=detail, ID=10
+2. Service found order</t>
+  </si>
+  <si>
+    <t>Forward order-detail.jsp</t>
   </si>
 </sst>
 </file>
@@ -150,17 +217,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="8.37109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.48046875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="30.87109375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.51171875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="24.5078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.24609375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.80859375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="28.80078125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="29.58984375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="16.2109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="10.62890625" customWidth="true" bestFit="true"/>
   </cols>
@@ -234,6 +301,121 @@
         <v>13</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
